--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET-29\Comcast_selenium_Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9384" activeTab="2"/>
+    <workbookView activeTab="4" windowHeight="9384" windowWidth="19368" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="org" sheetId="1" r:id="rId1"/>
-    <sheet name="contact" sheetId="2" r:id="rId2"/>
-    <sheet name="lead" sheetId="3" r:id="rId3"/>
+    <sheet name="org" r:id="rId1" sheetId="1"/>
+    <sheet name="contact" r:id="rId2" sheetId="2"/>
+    <sheet name="lead" r:id="rId3" sheetId="3"/>
+    <sheet name="dataorg" r:id="rId4" sheetId="4"/>
+    <sheet name="flipkart" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>TC_ID</t>
   </si>
@@ -83,12 +85,253 @@
   </si>
   <si>
     <t>ydff</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>infi</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>POCO C31 (Royal Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme 9i (Prism Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO C31 (Royal Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C20 (Cool Grey, 32 GB)</t>
+  </si>
+  <si>
+    <t>realme C20 (Cool Blue, 32 GB)</t>
+  </si>
+  <si>
+    <t>OPPO K10 (Blue Flame, 128 GB)</t>
+  </si>
+  <si>
+    <t>realme 9i (Prism Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>POCO C31 (Shadow Gray, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme 9i (Prism Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>POCO M3 Pro 5G (Cool Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>POCO M3 Pro 5G (Power Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme C35 (Glowing Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>REDMI 9i Sport (Carbon Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>MOTOROLA e40 (Pink Clay, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO M3 Pro 5G (Cool Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>POCO M3 Pro 5G (Yellow, 64 GB)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F23 5G (Forest Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy F23 5G (Aqua Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>MOTOROLA g31 (Baby Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>realme 9i (Prism Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹12,999</t>
+  </si>
+  <si>
+    <t>₹8,999</t>
+  </si>
+  <si>
+    <t>₹7,999</t>
+  </si>
+  <si>
+    <t>₹14,990</t>
+  </si>
+  <si>
+    <t>₹14,999</t>
+  </si>
+  <si>
+    <t>₹7,499</t>
+  </si>
+  <si>
+    <t>₹15,999</t>
+  </si>
+  <si>
+    <t>₹13,999</t>
+  </si>
+  <si>
+    <t>₹11,999</t>
+  </si>
+  <si>
+    <t>₹8,799</t>
+  </si>
+  <si>
+    <t>₹9,999</t>
+  </si>
+  <si>
+    <t>₹16,999</t>
+  </si>
+  <si>
+    <t>realme C21Y (Cross Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹10,499</t>
+  </si>
+  <si>
+    <t>realme C21Y (Cross Black, 32 GB)</t>
+  </si>
+  <si>
+    <t>₹9,499</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (Red, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹27,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹25,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹74,900</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 Mini (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹59,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 Mini (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 Mini (Pink, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (Red, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹52,990</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (White, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹29,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (Green, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹49,900</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Pink, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹34,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (Red, 64 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (3rd Gen) (Starlight, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹43,900</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (White, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹48,990</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹54,900</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Starlight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (White, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone SE (White, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 ((PRODUCT)RED, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 12 Mini (Blue, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹49,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 ((PRODUCT)RED, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹84,900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,16 +359,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,10 +385,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -180,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,21 +552,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -340,7 +583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -392,25 +635,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,13 +710,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D5"/>
@@ -481,8 +724,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,23 +782,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -627,6 +870,276 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>